--- a/协议.xlsx
+++ b/协议.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\PLC2STM Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA3B67A-8CE8-4603-90AD-CDD7A2111DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC53D86-C965-4A98-A40E-4A87CF61ED47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工控机与主板" sheetId="1" r:id="rId1"/>
-    <sheet name="主板与副板" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1089,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="L150" sqref="L150"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5141,20 +5140,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F882CA50-93C4-457C-AAF4-03B92DCCCF90}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>